--- a/design/excel/level_config.xlsx
+++ b/design/excel/level_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14720" windowHeight="17180"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>关卡模型</t>
+  </si>
+  <si>
+    <t>地图</t>
   </si>
   <si>
     <t>int</t>
@@ -36,7 +39,13 @@
     <t>model_path</t>
   </si>
   <si>
+    <t>map_path</t>
+  </si>
+  <si>
     <t>demo</t>
+  </si>
+  <si>
+    <t>map_1</t>
   </si>
 </sst>
 </file>
@@ -44,12 +53,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,14 +68,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,46 +157,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,71 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +198,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,37 +220,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,145 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,21 +411,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,9 +431,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,173 +511,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,47 +1013,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="11.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1084,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1087,7 +1101,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/excel/level_config.xlsx
+++ b/design/excel/level_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -27,12 +27,21 @@
     <t>地图</t>
   </si>
   <si>
+    <t>预加载敌人</t>
+  </si>
+  <si>
+    <t>敌人刷新配置</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -42,10 +51,22 @@
     <t>map_path</t>
   </si>
   <si>
+    <t>enemy_list</t>
+  </si>
+  <si>
+    <t>refresh_path</t>
+  </si>
+  <si>
     <t>demo</t>
   </si>
   <si>
     <t>map_1</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>refresh_level_1</t>
   </si>
 </sst>
 </file>
@@ -53,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +88,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -75,13 +111,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -89,8 +118,76 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,32 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,30 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,38 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +432,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,6 +461,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,70 +528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +540,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,139 +552,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,59 +1037,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="11.8166666666667" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.8166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/design/excel/level_config.xlsx
+++ b/design/excel/level_config.xlsx
@@ -63,7 +63,7 @@
     <t>map_1</t>
   </si>
   <si>
-    <t>[1]</t>
+    <t>[1,2]</t>
   </si>
   <si>
     <t>refresh_level_1</t>
@@ -90,6 +90,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -104,14 +112,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,68 +163,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,32 +186,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,21 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,26 +450,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +500,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -523,15 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
